--- a/docs/CareConnect-Observation-1.xlsx
+++ b/docs/CareConnect-Observation-1.xlsx
@@ -2033,13 +2033,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2050,19 +2050,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="115.77734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/docs/CareConnect-Observation-1.xlsx
+++ b/docs/CareConnect-Observation-1.xlsx
@@ -2033,13 +2033,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2050,19 +2050,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="115.77734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/docs/CareConnect-Observation-1.xlsx
+++ b/docs/CareConnect-Observation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="562">
   <si>
     <t>Path</t>
   </si>
@@ -786,6 +786,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Observation.code.coding.system</t>
@@ -1256,7 +1262,7 @@
     <t xml:space="preserve"> A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1 </t>
+    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.id</t>
@@ -5389,10 +5395,10 @@
         <v>247</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5467,7 +5473,7 @@
         <v>45</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5478,7 +5484,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5504,23 +5510,23 @@
         <v>69</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>45</v>
@@ -5562,7 +5568,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5583,10 +5589,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5597,7 +5603,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5623,13 +5629,13 @@
         <v>120</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5679,7 +5685,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5700,10 +5706,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5714,7 +5720,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5740,14 +5746,14 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5796,7 +5802,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5817,10 +5823,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5831,7 +5837,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5857,14 +5863,14 @@
         <v>120</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5913,7 +5919,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5934,10 +5940,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5948,7 +5954,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5971,19 +5977,19 @@
         <v>57</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -6032,7 +6038,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -6053,10 +6059,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -6067,7 +6073,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6093,16 +6099,16 @@
         <v>120</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -6151,7 +6157,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6172,10 +6178,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -6186,7 +6192,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6209,19 +6215,19 @@
         <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6270,7 +6276,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6285,19 +6291,19 @@
         <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6305,11 +6311,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6328,19 +6334,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6389,7 +6395,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6404,19 +6410,19 @@
         <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6424,11 +6430,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6447,19 +6453,19 @@
         <v>57</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6508,7 +6514,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6523,19 +6529,19 @@
         <v>45</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6543,7 +6549,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6566,16 +6572,16 @@
         <v>57</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6625,7 +6631,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6646,13 +6652,13 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
@@ -6660,7 +6666,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6683,17 +6689,17 @@
         <v>57</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6742,7 +6748,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6757,19 +6763,19 @@
         <v>45</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6777,7 +6783,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6800,19 +6806,19 @@
         <v>57</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6861,7 +6867,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6870,33 +6876,33 @@
         <v>56</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6922,16 +6928,16 @@
         <v>142</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6959,10 +6965,10 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
@@ -6980,7 +6986,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6989,13 +6995,13 @@
         <v>56</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>45</v>
@@ -7004,7 +7010,7 @@
         <v>99</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -7015,11 +7021,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7041,14 +7047,14 @@
         <v>142</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -7076,10 +7082,10 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -7097,7 +7103,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -7115,24 +7121,24 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7158,14 +7164,14 @@
         <v>120</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7214,7 +7220,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7229,16 +7235,16 @@
         <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7249,7 +7255,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7275,13 +7281,13 @@
         <v>142</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7310,10 +7316,10 @@
         <v>218</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7331,7 +7337,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7349,24 +7355,24 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7481,7 +7487,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7598,7 +7604,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7670,7 +7676,7 @@
         <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
@@ -7715,7 +7721,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>239</v>
@@ -7780,10 +7786,10 @@
         <v>208</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7836,7 +7842,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7951,7 +7957,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8066,7 +8072,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>246</v>
@@ -8094,10 +8100,10 @@
         <v>247</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8172,7 +8178,7 @@
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8183,7 +8189,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8209,23 +8215,23 @@
         <v>69</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>45</v>
@@ -8267,7 +8273,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8288,10 +8294,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8302,7 +8308,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8328,13 +8334,13 @@
         <v>120</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8384,7 +8390,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8405,10 +8411,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8419,7 +8425,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8445,14 +8451,14 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8501,7 +8507,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8522,10 +8528,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8536,7 +8542,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8562,14 +8568,14 @@
         <v>120</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8618,7 +8624,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8639,10 +8645,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8653,7 +8659,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8676,19 +8682,19 @@
         <v>57</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8737,7 +8743,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8758,10 +8764,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8772,7 +8778,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8798,16 +8804,16 @@
         <v>120</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8856,7 +8862,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8877,10 +8883,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -8891,7 +8897,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8917,16 +8923,16 @@
         <v>142</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8954,10 +8960,10 @@
         <v>218</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8975,7 +8981,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8996,10 +9002,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -9010,7 +9016,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9125,7 +9131,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9242,7 +9248,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9314,7 +9320,7 @@
         <v>45</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
@@ -9359,7 +9365,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>239</v>
@@ -9424,10 +9430,10 @@
         <v>208</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9480,7 +9486,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9595,7 +9601,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9710,7 +9716,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>246</v>
@@ -9738,10 +9744,10 @@
         <v>247</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9816,7 +9822,7 @@
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9827,7 +9833,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9853,23 +9859,23 @@
         <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>45</v>
@@ -9911,7 +9917,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9932,10 +9938,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9946,7 +9952,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9972,13 +9978,13 @@
         <v>120</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10028,7 +10034,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10049,10 +10055,10 @@
         <v>45</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -10063,7 +10069,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10089,14 +10095,14 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10145,7 +10151,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10166,10 +10172,10 @@
         <v>45</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10180,7 +10186,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10206,14 +10212,14 @@
         <v>120</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10262,7 +10268,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10283,10 +10289,10 @@
         <v>45</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10297,7 +10303,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10320,19 +10326,19 @@
         <v>57</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>45</v>
@@ -10381,7 +10387,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10402,10 +10408,10 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10416,7 +10422,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10442,16 +10448,16 @@
         <v>120</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10500,7 +10506,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
@@ -10521,10 +10527,10 @@
         <v>45</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10535,7 +10541,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10558,16 +10564,16 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10617,7 +10623,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10635,24 +10641,24 @@
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10675,16 +10681,16 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10734,7 +10740,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10752,24 +10758,24 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10792,19 +10798,19 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10853,7 +10859,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10865,7 +10871,7 @@
         <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>45</v>
@@ -10874,10 +10880,10 @@
         <v>45</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -10888,7 +10894,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11003,7 +11009,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11120,11 +11126,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11149,7 +11155,7 @@
         <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>105</v>
@@ -11202,7 +11208,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11237,7 +11243,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11260,13 +11266,13 @@
         <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11317,7 +11323,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11326,7 +11332,7 @@
         <v>56</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>45</v>
@@ -11338,10 +11344,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11352,7 +11358,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11375,13 +11381,13 @@
         <v>45</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11432,31 +11438,31 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AF81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="AM81" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11467,7 +11473,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11493,16 +11499,16 @@
         <v>142</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11530,10 +11536,10 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>45</v>
@@ -11551,7 +11557,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11569,13 +11575,13 @@
         <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11586,7 +11592,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11612,16 +11618,16 @@
         <v>142</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11649,10 +11655,10 @@
         <v>218</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>45</v>
@@ -11670,7 +11676,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11688,13 +11694,13 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11705,7 +11711,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11728,17 +11734,17 @@
         <v>45</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11787,7 +11793,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11811,7 +11817,7 @@
         <v>45</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -11822,7 +11828,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11848,10 +11854,10 @@
         <v>120</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11902,7 +11908,7 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -11923,10 +11929,10 @@
         <v>45</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
@@ -11937,7 +11943,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11960,19 +11966,19 @@
         <v>57</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -12021,7 +12027,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -12033,7 +12039,7 @@
         <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>45</v>
@@ -12042,10 +12048,10 @@
         <v>45</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -12056,7 +12062,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12171,7 +12177,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12288,11 +12294,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12317,7 +12323,7 @@
         <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>105</v>
@@ -12370,7 +12376,7 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
@@ -12405,7 +12411,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12431,16 +12437,16 @@
         <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -12468,10 +12474,10 @@
         <v>136</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>45</v>
@@ -12489,7 +12495,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -12513,7 +12519,7 @@
         <v>99</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -12524,7 +12530,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12547,13 +12553,13 @@
         <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12604,7 +12610,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>56</v>
@@ -12628,7 +12634,7 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
@@ -12639,7 +12645,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12662,19 +12668,19 @@
         <v>57</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
@@ -12723,7 +12729,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -12735,7 +12741,7 @@
         <v>45</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>45</v>
@@ -12744,10 +12750,10 @@
         <v>45</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -12758,7 +12764,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12873,7 +12879,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12990,11 +12996,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13019,7 +13025,7 @@
         <v>108</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>105</v>
@@ -13072,7 +13078,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13107,7 +13113,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13133,10 +13139,10 @@
         <v>142</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
@@ -13189,7 +13195,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>56</v>
@@ -13207,7 +13213,7 @@
         <v>45</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>223</v>
@@ -13224,7 +13230,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13339,7 +13345,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13456,7 +13462,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13573,7 +13579,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>239</v>
@@ -13694,7 +13700,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13809,7 +13815,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13924,7 +13930,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>246</v>
@@ -13952,10 +13958,10 @@
         <v>247</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -14030,7 +14036,7 @@
         <v>45</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
@@ -14041,7 +14047,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14067,23 +14073,23 @@
         <v>69</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>45</v>
@@ -14125,7 +14131,7 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
@@ -14146,10 +14152,10 @@
         <v>45</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>45</v>
@@ -14160,7 +14166,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14186,13 +14192,13 @@
         <v>120</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14242,7 +14248,7 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -14263,10 +14269,10 @@
         <v>45</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -14277,7 +14283,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14303,14 +14309,14 @@
         <v>75</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
@@ -14359,7 +14365,7 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -14380,10 +14386,10 @@
         <v>45</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -14394,7 +14400,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14420,14 +14426,14 @@
         <v>120</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>45</v>
@@ -14476,7 +14482,7 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
@@ -14497,10 +14503,10 @@
         <v>45</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
@@ -14511,7 +14517,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14534,19 +14540,19 @@
         <v>57</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>45</v>
@@ -14595,7 +14601,7 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
@@ -14616,10 +14622,10 @@
         <v>45</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>45</v>
@@ -14630,7 +14636,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14656,16 +14662,16 @@
         <v>120</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
@@ -14714,7 +14720,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -14735,10 +14741,10 @@
         <v>45</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>45</v>
@@ -14749,7 +14755,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14772,19 +14778,19 @@
         <v>57</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -14833,7 +14839,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -14851,24 +14857,24 @@
         <v>45</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14894,16 +14900,16 @@
         <v>142</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
@@ -14931,10 +14937,10 @@
         <v>79</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>45</v>
@@ -14952,7 +14958,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -14961,7 +14967,7 @@
         <v>56</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>45</v>
@@ -14976,7 +14982,7 @@
         <v>99</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
@@ -14987,11 +14993,11 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15013,16 +15019,16 @@
         <v>142</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>45</v>
@@ -15050,10 +15056,10 @@
         <v>79</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>45</v>
@@ -15071,7 +15077,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -15089,24 +15095,24 @@
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15132,16 +15138,16 @@
         <v>45</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>45</v>
@@ -15190,7 +15196,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -15211,10 +15217,10 @@
         <v>45</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>

--- a/docs/CareConnect-Observation-1.xlsx
+++ b/docs/CareConnect-Observation-1.xlsx
@@ -747,7 +747,7 @@
     <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:code}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
@@ -1255,11 +1255,7 @@
     <t>Observation.bodySite.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
+    <t>A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
   </si>
   <si>
     <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
@@ -1703,6 +1699,10 @@
   </si>
   <si>
     <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:code}
+</t>
   </si>
   <si>
     <t>Observation.component.code.coding.id</t>
@@ -1925,13 +1925,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1942,22 +1942,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.77734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.27734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>
@@ -7676,7 +7676,7 @@
         <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
@@ -7786,10 +7786,10 @@
         <v>208</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7957,7 +7957,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8072,7 +8072,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>246</v>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8308,7 +8308,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8425,7 +8425,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8542,7 +8542,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8659,7 +8659,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8778,7 +8778,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8897,7 +8897,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8923,16 +8923,16 @@
         <v>142</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8960,52 +8960,52 @@
         <v>218</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9131,7 +9131,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9248,7 +9248,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9320,7 +9320,7 @@
         <v>45</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
@@ -9365,7 +9365,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>239</v>
@@ -9430,10 +9430,10 @@
         <v>208</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9486,7 +9486,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9601,7 +9601,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9716,7 +9716,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>246</v>
@@ -9833,7 +9833,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9952,7 +9952,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10069,7 +10069,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10186,7 +10186,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10303,7 +10303,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10422,7 +10422,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10541,7 +10541,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10564,16 +10564,16 @@
         <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10623,7 +10623,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10641,24 +10641,24 @@
         <v>45</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AL74" t="s" s="2">
+      <c r="AM74" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10681,16 +10681,16 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10740,7 +10740,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -10758,24 +10758,24 @@
         <v>45</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>448</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10798,19 +10798,19 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
@@ -10859,7 +10859,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -10871,19 +10871,19 @@
         <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11009,7 +11009,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11126,11 +11126,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11155,7 +11155,7 @@
         <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>105</v>
@@ -11208,7 +11208,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11266,13 +11266,13 @@
         <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11323,7 +11323,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11332,22 +11332,22 @@
         <v>56</v>
       </c>
       <c r="AH80" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AI80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AM80" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11358,7 +11358,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11381,13 +11381,13 @@
         <v>45</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11438,7 +11438,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11447,22 +11447,22 @@
         <v>56</v>
       </c>
       <c r="AH81" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AI81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="AM81" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11473,7 +11473,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11499,16 +11499,16 @@
         <v>142</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11536,49 +11536,49 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Y82" t="s" s="2">
+      <c r="Z82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK82" t="s" s="2">
+      <c r="AL82" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>376</v>
@@ -11592,7 +11592,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11618,16 +11618,16 @@
         <v>142</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11655,11 +11655,11 @@
         <v>218</v>
       </c>
       <c r="X83" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y83" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y83" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11694,10 +11694,10 @@
         <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>376</v>
@@ -11711,7 +11711,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11734,17 +11734,17 @@
         <v>45</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -11793,7 +11793,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -11817,7 +11817,7 @@
         <v>45</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -11828,7 +11828,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11854,10 +11854,10 @@
         <v>120</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11908,7 +11908,7 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -11929,10 +11929,10 @@
         <v>45</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11966,19 +11966,19 @@
         <v>57</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -12027,7 +12027,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -12039,19 +12039,19 @@
         <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AJ86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -12062,7 +12062,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12177,7 +12177,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12294,11 +12294,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12323,7 +12323,7 @@
         <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>105</v>
@@ -12376,7 +12376,7 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
@@ -12411,7 +12411,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12437,16 +12437,16 @@
         <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>45</v>
@@ -12474,11 +12474,11 @@
         <v>136</v>
       </c>
       <c r="X90" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="Y90" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="Y90" t="s" s="2">
-        <v>518</v>
-      </c>
       <c r="Z90" t="s" s="2">
         <v>45</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -12519,7 +12519,7 @@
         <v>99</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -12530,7 +12530,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12553,13 +12553,13 @@
         <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12610,7 +12610,7 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>56</v>
@@ -12634,7 +12634,7 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
@@ -12645,7 +12645,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12668,19 +12668,19 @@
         <v>57</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>45</v>
@@ -12729,7 +12729,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -12741,7 +12741,7 @@
         <v>45</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>45</v>
@@ -12750,10 +12750,10 @@
         <v>45</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -12764,7 +12764,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12879,7 +12879,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12996,11 +12996,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13025,7 +13025,7 @@
         <v>108</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>105</v>
@@ -13078,7 +13078,7 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
@@ -13113,7 +13113,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13139,10 +13139,10 @@
         <v>142</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
@@ -13195,7 +13195,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>56</v>
@@ -13213,7 +13213,7 @@
         <v>45</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>223</v>
@@ -13230,7 +13230,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13345,7 +13345,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13462,7 +13462,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13534,7 +13534,7 @@
         <v>45</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>235</v>
+        <v>541</v>
       </c>
       <c r="AB99" s="2"/>
       <c r="AC99" t="s" s="2">
@@ -13579,7 +13579,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>239</v>
@@ -15141,13 +15141,13 @@
         <v>561</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>45</v>
@@ -15217,10 +15217,10 @@
         <v>45</v>
       </c>
       <c r="AL113" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM113" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>

--- a/docs/CareConnect-Observation-1.xlsx
+++ b/docs/CareConnect-Observation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="561">
   <si>
     <t>Path</t>
   </si>
@@ -1699,10 +1699,6 @@
   </si>
   <si>
     <t>Observation.component.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:code}
-</t>
   </si>
   <si>
     <t>Observation.component.code.coding.id</t>
@@ -13534,7 +13530,7 @@
         <v>45</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>541</v>
+        <v>235</v>
       </c>
       <c r="AB99" s="2"/>
       <c r="AC99" t="s" s="2">
@@ -13700,7 +13696,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13815,7 +13811,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13930,7 +13926,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>246</v>
@@ -14047,7 +14043,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14166,7 +14162,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14283,7 +14279,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14400,7 +14396,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14517,7 +14513,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14636,7 +14632,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14755,7 +14751,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14778,16 +14774,16 @@
         <v>57</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="K110" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>349</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N110" t="s" s="2">
         <v>351</v>
@@ -14839,7 +14835,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -14857,7 +14853,7 @@
         <v>45</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>355</v>
@@ -14874,7 +14870,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14900,13 +14896,13 @@
         <v>142</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>360</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N111" t="s" s="2">
         <v>362</v>
@@ -14958,7 +14954,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -14993,7 +14989,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15025,7 +15021,7 @@
         <v>370</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>371</v>
@@ -15077,7 +15073,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -15112,7 +15108,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15138,7 +15134,7 @@
         <v>45</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>451</v>
@@ -15196,7 +15192,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>

--- a/docs/CareConnect-Observation-1.xlsx
+++ b/docs/CareConnect-Observation-1.xlsx
@@ -1921,13 +1921,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1938,22 +1938,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.27734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.28125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Observation-1.xlsx
+++ b/docs/CareConnect-Observation-1.xlsx
@@ -1921,13 +1921,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1938,22 +1938,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.28125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.27734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="72.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="22.03125" customWidth="true" bestFit="true"/>
